--- a/doc/制作物_工程表.xlsx
+++ b/doc/制作物_工程表.xlsx
@@ -303,6 +303,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4GB</t>
     </r>
@@ -334,6 +335,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Docker</t>
     </r>
@@ -353,12 +355,69 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1~GB</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">・ボイスロイド</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">・音声認識の辞書とか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">100MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -717,7 +776,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,8 +967,8 @@
   </sheetPr>
   <dimension ref="B1:AF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/制作物_工程表.xlsx
+++ b/doc/制作物_工程表.xlsx
@@ -377,6 +377,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -396,6 +397,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">100MB</t>
     </r>
@@ -415,6 +417,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -427,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,12 +474,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -967,8 +964,8 @@
   </sheetPr>
   <dimension ref="B1:AF36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/制作物_工程表.xlsx
+++ b/doc/制作物_工程表.xlsx
@@ -430,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,6 +454,14 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -474,6 +482,20 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -692,7 +714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,6 +724,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,31 +739,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,7 +775,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,15 +795,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,7 +823,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,11 +847,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,8 +871,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -962,10 +988,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AF36"/>
+  <dimension ref="B1:AJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG17" activeCellId="0" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,135 +1001,142 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="5" style="1" width="3.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="30" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="30" style="1" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="34" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="n">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="n">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="n">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="6" t="n">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="7" t="n">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="8" t="n">
+      <c r="S3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="T3" s="8" t="n">
+      <c r="T3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="U3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="V3" s="8" t="n">
+      <c r="V3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="W3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="X3" s="8" t="n">
+      <c r="X3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="10" t="n">
         <v>4</v>
       </c>
       <c r="Z3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
@@ -1112,449 +1145,465 @@
       <c r="AC3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AD3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
+      <c r="AI3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="17"/>
-      <c r="AE4" s="1" t="n">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="18"/>
+      <c r="AI4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="17"/>
-      <c r="AE5" s="1" t="n">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="18"/>
+      <c r="AI5" s="2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12"/>
-      <c r="C6" s="18" t="s">
+    <row r="6" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="13"/>
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="17"/>
-      <c r="AE6" s="20" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="18"/>
+      <c r="AI6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13"/>
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="17"/>
-      <c r="AE7" s="20" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="18"/>
+      <c r="AI7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12"/>
-      <c r="C8" s="21" t="s">
+    <row r="8" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="13"/>
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="17"/>
-      <c r="AE8" s="1" t="n">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="AI8" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18" t="s">
+    <row r="9" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13"/>
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="17"/>
-      <c r="AE9" s="20" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="18"/>
+      <c r="AI9" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12"/>
-      <c r="C10" s="18" t="s">
+    <row r="10" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="13"/>
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="17"/>
-      <c r="AE10" s="1" t="n">
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="AI10" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="18" t="s">
+    <row r="11" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13"/>
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="17"/>
-      <c r="AE11" s="1" t="n">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="18"/>
+      <c r="AI11" s="2" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="0"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="17"/>
-      <c r="AE12" s="1" t="n">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="18"/>
+      <c r="AI12" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="24" t="s">
+    <row r="13" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="24"/>
-      <c r="C14" s="18" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="30"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="25"/>
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="24"/>
-      <c r="C15" s="18" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="25"/>
+      <c r="C15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="0"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="24"/>
-      <c r="C16" s="32" t="s">
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="25"/>
+      <c r="C16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="33" t="n">
+      <c r="D16" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="37"/>
       <c r="Z16" s="0"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="0"/>
-      <c r="AE16" s="0"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="E17" s="1" t="n">
         <v>9</v>
       </c>
@@ -1607,107 +1656,134 @@
         <v>20</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="0"/>
-      <c r="AD17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="0"/>
-      <c r="AF17" s="1" t="n">
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="2" t="n">
         <f aca="false">SUM(E17:Y17)</f>
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="AD18" s="1" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="AH18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF18" s="1" t="n">
-        <f aca="false">SUM(AE4:AE16)+AF4</f>
+      <c r="AJ18" s="2" t="n">
+        <f aca="false">SUM(AI4:AI16)+AJ4</f>
         <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="41"/>
-      <c r="G19" s="42" t="s">
+      <c r="E19" s="42"/>
+      <c r="G19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="0"/>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
       <c r="J20" s="0"/>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="R20" s="46" t="s">
+      <c r="N20" s="46"/>
+      <c r="R20" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0"/>
@@ -1717,70 +1793,70 @@
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="37" t="s">
+    <row r="25" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="41" t="s">
+    <row r="30" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="41" t="s">
+    <row r="35" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="41" t="s">
+    <row r="36" customFormat="false" ht="16.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="42" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:I2"/>
@@ -1789,6 +1865,7 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="G18:Y18"/>
